--- a/MSI2.PROJ2/best-models/wykresy/SVM_test_najnowszy.xlsx
+++ b/MSI2.PROJ2/best-models/wykresy/SVM_test_najnowszy.xlsx
@@ -1351,7 +1351,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>Zależność dokłądności algorytmu SVM od parametru gamma</a:t>
+              <a:t>Zależność dokładności algorytmu SVM od parametru gamma</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3359,8 +3359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3385,1023 +3385,1023 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>91.980800000000002</v>
+        <v>98.470200000000006</v>
       </c>
       <c r="C2" s="4">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="D2" s="4">
-        <v>1E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E2" s="4">
-        <v>1756.78</v>
+        <v>399.09</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>92.880700000000004</v>
+        <v>98.440200000000004</v>
       </c>
       <c r="C3" s="4">
-        <v>0.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D3" s="4">
-        <v>1E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E3" s="4">
-        <v>1123.78</v>
+        <v>399.92</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>93.220699999999994</v>
+        <v>98.400199999999998</v>
       </c>
       <c r="C4" s="4">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="D4" s="4">
-        <v>1E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E4" s="4">
-        <v>954.64</v>
+        <v>403.81</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>93.540599999999998</v>
+        <v>98.360200000000006</v>
       </c>
       <c r="C5" s="4">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="D5" s="4">
-        <v>1E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E5" s="4">
-        <v>859.15</v>
+        <v>420.13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>93.780600000000007</v>
+        <v>98.310199999999995</v>
       </c>
       <c r="C6" s="4">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D6" s="4">
-        <v>1E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E6" s="4">
-        <v>790.87</v>
+        <v>469.92</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>93.950599999999994</v>
+        <v>98.280199999999994</v>
       </c>
       <c r="C7" s="4">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="D7" s="4">
-        <v>1E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E7" s="4">
-        <v>744.02</v>
+        <v>428.06</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>94.010599999999997</v>
+        <v>98.220200000000006</v>
       </c>
       <c r="C8" s="4">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="D8" s="4">
-        <v>1E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E8" s="4">
-        <v>733.32</v>
+        <v>419.8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>94.130600000000001</v>
+        <v>98.200199999999995</v>
       </c>
       <c r="C9" s="4">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="D9" s="4">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E9" s="4">
-        <v>696.26</v>
+        <v>367.78</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>94.230599999999995</v>
+        <v>98.140199999999993</v>
       </c>
       <c r="C10" s="4">
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D10" s="4">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E10" s="4">
-        <v>664.21</v>
+        <v>371.12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>94.250600000000006</v>
+        <v>98.120199999999997</v>
       </c>
       <c r="C11" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="4">
-        <v>1E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E11" s="4">
-        <v>648.36</v>
+        <v>434.91</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>94.390600000000006</v>
+        <v>98.090199999999996</v>
       </c>
       <c r="C12" s="4">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="D12" s="4">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E12" s="4">
-        <v>611.41</v>
+        <v>391.78</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>94.440600000000003</v>
+        <v>98.080200000000005</v>
       </c>
       <c r="C13" s="4">
-        <v>0.2</v>
+        <v>1.8</v>
       </c>
       <c r="D13" s="4">
-        <v>4.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E13" s="4">
-        <v>1131.6500000000001</v>
+        <v>397.74</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>94.470600000000005</v>
+        <v>98.040199999999999</v>
       </c>
       <c r="C14" s="4">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="D14" s="4">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E14" s="4">
-        <v>593.03</v>
+        <v>399.26</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>95.200500000000005</v>
+        <v>98.000200000000007</v>
       </c>
       <c r="C15" s="4">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D15" s="4">
-        <v>4.0000000000000001E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E15" s="4">
-        <v>694.7</v>
+        <v>452.9</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>95.600399999999993</v>
+        <v>98.000200000000007</v>
       </c>
       <c r="C16" s="4">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="D16" s="4">
-        <v>7.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E16" s="4">
-        <v>936.95</v>
+        <v>409.15</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>95.760400000000004</v>
+        <v>97.880200000000002</v>
       </c>
       <c r="C17" s="4">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="D17" s="4">
-        <v>4.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E17" s="4">
-        <v>599.25</v>
+        <v>363.8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>96.0304</v>
+        <v>97.860200000000006</v>
       </c>
       <c r="C18" s="4">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="D18" s="4">
-        <v>4.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E18" s="4">
-        <v>544.30999999999995</v>
+        <v>406.36</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>96.220399999999998</v>
+        <v>97.8202</v>
       </c>
       <c r="C19" s="4">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D19" s="4">
-        <v>4.0000000000000001E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E19" s="4">
-        <v>508.81</v>
+        <v>490.02</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>96.350399999999993</v>
+        <v>97.800200000000004</v>
       </c>
       <c r="C20" s="4">
-        <v>0.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D20" s="4">
-        <v>0.01</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E20" s="4">
-        <v>779.82</v>
+        <v>370.22</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>96.420400000000001</v>
+        <v>97.780199999999994</v>
       </c>
       <c r="C21" s="4">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="D21" s="4">
-        <v>4.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E21" s="4">
-        <v>482.67</v>
+        <v>385.56</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>96.450400000000002</v>
+        <v>97.750200000000007</v>
       </c>
       <c r="C22" s="4">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D22" s="4">
-        <v>7.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E22" s="4">
-        <v>594</v>
+        <v>424.71</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>96.590299999999999</v>
+        <v>97.670199999999994</v>
       </c>
       <c r="C23" s="4">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="D23" s="4">
-        <v>4.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E23" s="4">
-        <v>475.94</v>
+        <v>404.6</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>96.750299999999996</v>
+        <v>97.650199999999998</v>
       </c>
       <c r="C24" s="4">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="D24" s="4">
-        <v>4.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E24" s="4">
-        <v>460.83</v>
+        <v>448.86</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>96.810299999999998</v>
+        <v>97.610200000000006</v>
       </c>
       <c r="C25" s="4">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="D25" s="4">
-        <v>1.4E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E25" s="4">
-        <v>729.68</v>
+        <v>405.71</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>96.8703</v>
+        <v>97.540199999999999</v>
       </c>
       <c r="C26" s="4">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D26" s="4">
-        <v>7.0000000000000001E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E26" s="4">
-        <v>515.98</v>
+        <v>547.16</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>96.900300000000001</v>
+        <v>97.470299999999995</v>
       </c>
       <c r="C27" s="4">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="D27" s="4">
-        <v>4.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E27" s="4">
-        <v>435.08</v>
+        <v>419.03</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>96.990300000000005</v>
+        <v>97.440299999999993</v>
       </c>
       <c r="C28" s="4">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="D28" s="4">
-        <v>4.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E28" s="4">
-        <v>400.9</v>
+        <v>490.35</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>96.990300000000005</v>
+        <v>97.350300000000004</v>
       </c>
       <c r="C29" s="4">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="D29" s="4">
-        <v>4.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E29" s="4">
-        <v>419.42</v>
+        <v>420.19</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>97.020300000000006</v>
+        <v>97.280299999999997</v>
       </c>
       <c r="C30" s="4">
-        <v>2.2000000000000002</v>
+        <v>1</v>
       </c>
       <c r="D30" s="4">
-        <v>4.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E30" s="4">
-        <v>409.15</v>
+        <v>442.77</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>97.070300000000003</v>
+        <v>97.200299999999999</v>
       </c>
       <c r="C31" s="4">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D31" s="4">
-        <v>0.01</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E31" s="4">
-        <v>557.53</v>
+        <v>472.52</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>97.200299999999999</v>
+        <v>97.070300000000003</v>
       </c>
       <c r="C32" s="4">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D32" s="4">
-        <v>7.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E32" s="4">
-        <v>472.52</v>
+        <v>557.53</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>97.280299999999997</v>
+        <v>97.020300000000006</v>
       </c>
       <c r="C33" s="4">
-        <v>1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D33" s="4">
-        <v>7.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E33" s="4">
-        <v>442.77</v>
+        <v>409.15</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>97.350300000000004</v>
+        <v>96.990300000000005</v>
       </c>
       <c r="C34" s="4">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="D34" s="4">
-        <v>7.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E34" s="4">
-        <v>420.19</v>
+        <v>419.42</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>97.440299999999993</v>
+        <v>96.990300000000005</v>
       </c>
       <c r="C35" s="4">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="D35" s="4">
-        <v>0.01</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E35" s="4">
-        <v>490.35</v>
+        <v>400.9</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>97.470299999999995</v>
+        <v>96.900300000000001</v>
       </c>
       <c r="C36" s="4">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="D36" s="4">
-        <v>7.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E36" s="4">
-        <v>419.03</v>
+        <v>435.08</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>97.540199999999999</v>
+        <v>96.8703</v>
       </c>
       <c r="C37" s="4">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D37" s="4">
-        <v>1.4E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E37" s="4">
-        <v>547.16</v>
+        <v>515.98</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>97.610200000000006</v>
+        <v>96.810299999999998</v>
       </c>
       <c r="C38" s="4">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="D38" s="4">
-        <v>7.0000000000000001E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E38" s="4">
-        <v>405.71</v>
+        <v>729.68</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>97.650199999999998</v>
+        <v>96.750299999999996</v>
       </c>
       <c r="C39" s="4">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="D39" s="4">
-        <v>0.01</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E39" s="4">
-        <v>448.86</v>
+        <v>460.83</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>97.670199999999994</v>
+        <v>96.590299999999999</v>
       </c>
       <c r="C40" s="4">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="D40" s="4">
-        <v>7.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E40" s="4">
-        <v>404.6</v>
+        <v>475.94</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>97.750200000000007</v>
+        <v>96.450400000000002</v>
       </c>
       <c r="C41" s="4">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D41" s="4">
-        <v>0.01</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E41" s="4">
-        <v>424.71</v>
+        <v>594</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>97.780199999999994</v>
+        <v>96.420400000000001</v>
       </c>
       <c r="C42" s="4">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="D42" s="4">
-        <v>7.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E42" s="4">
-        <v>385.56</v>
+        <v>482.67</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>97.800200000000004</v>
+        <v>96.350399999999993</v>
       </c>
       <c r="C43" s="4">
-        <v>2.2000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="D43" s="4">
-        <v>7.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E43" s="4">
-        <v>370.22</v>
+        <v>779.82</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>97.8202</v>
+        <v>96.220399999999998</v>
       </c>
       <c r="C44" s="4">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D44" s="4">
-        <v>1.4E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E44" s="4">
-        <v>490.02</v>
+        <v>508.81</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>97.860200000000006</v>
+        <v>96.0304</v>
       </c>
       <c r="C45" s="4">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="D45" s="4">
-        <v>0.01</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E45" s="4">
-        <v>406.36</v>
+        <v>544.30999999999995</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>97.880200000000002</v>
+        <v>95.760400000000004</v>
       </c>
       <c r="C46" s="4">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="D46" s="4">
-        <v>7.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E46" s="4">
-        <v>363.8</v>
+        <v>599.25</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>98.000200000000007</v>
+        <v>95.600399999999993</v>
       </c>
       <c r="C47" s="4">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D47" s="4">
-        <v>1.4E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E47" s="4">
-        <v>452.9</v>
+        <v>936.95</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>98.000200000000007</v>
+        <v>95.200500000000005</v>
       </c>
       <c r="C48" s="4">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="D48" s="4">
-        <v>0.01</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E48" s="4">
-        <v>409.15</v>
+        <v>694.7</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>98.040199999999999</v>
+        <v>94.470600000000005</v>
       </c>
       <c r="C49" s="4">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="D49" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E49" s="4">
-        <v>399.26</v>
+        <v>593.03</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>98.080200000000005</v>
+        <v>94.440600000000003</v>
       </c>
       <c r="C50" s="4">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="D50" s="4">
-        <v>0.01</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E50" s="4">
-        <v>397.74</v>
+        <v>1131.6500000000001</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>98.090199999999996</v>
+        <v>94.390600000000006</v>
       </c>
       <c r="C51" s="4">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D51" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E51" s="4">
-        <v>391.78</v>
+        <v>611.41</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>98.120199999999997</v>
+        <v>94.250600000000006</v>
       </c>
       <c r="C52" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" s="4">
-        <v>1.4E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="E52" s="4">
-        <v>434.91</v>
+        <v>648.36</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>98.140199999999993</v>
+        <v>94.230599999999995</v>
       </c>
       <c r="C53" s="4">
-        <v>2.2000000000000002</v>
+        <v>1.8</v>
       </c>
       <c r="D53" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E53" s="4">
-        <v>371.12</v>
+        <v>664.21</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>98.200199999999995</v>
+        <v>94.130600000000001</v>
       </c>
       <c r="C54" s="4">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="D54" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E54" s="4">
-        <v>367.78</v>
+        <v>696.26</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>98.220200000000006</v>
+        <v>94.010599999999997</v>
       </c>
       <c r="C55" s="4">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="D55" s="4">
-        <v>1.4E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="E55" s="4">
-        <v>419.8</v>
+        <v>733.32</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>98.280199999999994</v>
+        <v>93.950599999999994</v>
       </c>
       <c r="C56" s="4">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="D56" s="4">
-        <v>1.4E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="E56" s="4">
-        <v>428.06</v>
+        <v>744.02</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>98.310199999999995</v>
+        <v>93.780600000000007</v>
       </c>
       <c r="C57" s="4">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="D57" s="4">
-        <v>1.4E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="E57" s="4">
-        <v>469.92</v>
+        <v>790.87</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>98.360200000000006</v>
+        <v>93.540599999999998</v>
       </c>
       <c r="C58" s="4">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="D58" s="4">
-        <v>1.4E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="E58" s="4">
-        <v>420.13</v>
+        <v>859.15</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>98.400199999999998</v>
+        <v>93.220699999999994</v>
       </c>
       <c r="C59" s="4">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="D59" s="4">
-        <v>1.4E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="E59" s="4">
-        <v>403.81</v>
+        <v>954.64</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>98.440200000000004</v>
+        <v>92.880700000000004</v>
       </c>
       <c r="C60" s="4">
-        <v>2.2000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="D60" s="4">
-        <v>1.4E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="E60" s="4">
-        <v>399.92</v>
+        <v>1123.78</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>98.470200000000006</v>
+        <v>91.980800000000002</v>
       </c>
       <c r="C61" s="4">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="D61" s="4">
-        <v>1.4E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="E61" s="4">
-        <v>399.09</v>
+        <v>1756.78</v>
       </c>
     </row>
     <row r="65" spans="4:9" x14ac:dyDescent="0.25">
@@ -4743,7 +4743,7 @@
   </sheetData>
   <autoFilter ref="A1:E61">
     <sortState ref="A2:E61">
-      <sortCondition ref="B1:B61"/>
+      <sortCondition ref="A1:A61"/>
     </sortState>
   </autoFilter>
   <sortState ref="F85:I89">
